--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45865.04190887578</v>
+        <v>45865.04190887731</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>01:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45865.08354313159</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45865.08354313159</v>
+        <v>45865.08354313658</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>02:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45865.12527226665</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:00:23</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45865.12527226665</v>
+        <v>45865.12527226852</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>03:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45865.16689058254</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90.88</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>WNW</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>04:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45865.16689058254</v>
+        <v>45865.1668905787</v>
       </c>
       <c r="B5" t="n">
         <v>2025</v>
@@ -630,6 +630,42 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>04:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45865.2086103067</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>89.56999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>05:00:23</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45865.2086103067</v>
+        <v>45865.20861030093</v>
       </c>
       <c r="B6" t="n">
         <v>2025</v>
@@ -666,6 +666,42 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>05:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45865.25025472644</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ENE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>06:00:22</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45865.25025472644</v>
+        <v>45865.25025472222</v>
       </c>
       <c r="B7" t="n">
         <v>2025</v>
@@ -702,6 +702,42 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>06:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45865.3335573041</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="F8" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>08:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45865.3335573041</v>
+        <v>45865.33355730324</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -738,6 +738,42 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>08:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45865.37525619288</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.68000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>170.51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>09:00:22</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45865.37525619288</v>
+        <v>45865.37525619213</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -774,6 +774,42 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>09:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45865.41694434191</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="E10" t="n">
+        <v>86.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>240.82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10:00:23</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45865.41694434191</v>
+        <v>45865.41694434028</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -810,6 +810,42 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>10:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45865.45852378612</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85.27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>381.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45865.45852378612</v>
+        <v>45865.45852378472</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -846,6 +846,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>11:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45865.54202206938</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>638.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13:00:30</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45865.54202206938</v>
+        <v>45865.54202207176</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -882,6 +882,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>13:00:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45865.5836164567</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>119.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>14:00:24</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45865.5836164567</v>
+        <v>45865.58361645833</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -918,6 +918,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>14:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45865.62522154918</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>76.68000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>279.49</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45865.62522154918</v>
+        <v>45865.62522155092</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -954,6 +954,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>15:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45865.66692335347</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E15" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>253.13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16:00:22</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45865.66692335347</v>
+        <v>45865.66692335648</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -990,6 +990,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>16:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45865.708647753</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75.37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>151.17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>17:00:27</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45865.708647753</v>
+        <v>45865.70864775463</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -1026,6 +1026,42 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>17:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45865.75030394648</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="E17" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>18:00:26</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45865.75030394648</v>
+        <v>45865.75030394676</v>
       </c>
       <c r="B17" t="n">
         <v>2025</v>
@@ -1062,6 +1062,42 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>18:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45865.79197570039</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E18" t="n">
+        <v>87.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>19:00:26</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45865.79197570039</v>
+        <v>45865.79197570602</v>
       </c>
       <c r="B18" t="n">
         <v>2025</v>
@@ -1098,6 +1098,42 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>19:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45865.83358738009</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>20:00:21</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45865.83358738009</v>
+        <v>45865.83358738426</v>
       </c>
       <c r="B19" t="n">
         <v>2025</v>
@@ -1134,6 +1134,42 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>20:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45865.87529501117</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>21:00:25</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-27.xlsx
+++ b/datos_dropcontrol/2025-07-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45865.87529501117</v>
+        <v>45865.87529501157</v>
       </c>
       <c r="B20" t="n">
         <v>2025</v>
@@ -1170,6 +1170,42 @@
       <c r="J20" t="inlineStr">
         <is>
           <t>21:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45865.958641329</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>23:00:26</t>
         </is>
       </c>
     </row>
